--- a/xlsx/荷兰_intext.xlsx
+++ b/xlsx/荷兰_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1121">
   <si>
     <t>荷兰</t>
   </si>
@@ -29,7 +29,7 @@
     <t>荷兰王国</t>
   </si>
   <si>
-    <t>政策_政策_美國_荷兰</t>
+    <t>体育运动_体育运动_水球_荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8B%E6%88%90%E5%9C%8B</t>
@@ -710,28 +710,28 @@
     <t>歐盟</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/G-10</t>
-  </si>
-  <si>
-    <t>G-10</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NATO</t>
-  </si>
-  <si>
-    <t>NATO</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/OECD</t>
-  </si>
-  <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/WTO</t>
-  </si>
-  <si>
-    <t>WTO</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>十国集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>北约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>经济合作与发展组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%8D%B7%E5%8D%A2%E7%BB%8F%E6%B5%8E%E8%81%94%E7%9B%9F</t>
@@ -770,6 +770,12 @@
     <t>国际刑事法院</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/Special_Tribunal_for_Lebanon</t>
+  </si>
+  <si>
+    <t>en-Special Tribunal for Lebanon</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E5%88%91%E8%AD%A6%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -794,6 +800,12 @@
     <t>經濟自由度指數</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%BF%AB%E6%A8%82%E5%A0%B1%E5%91%8A</t>
+  </si>
+  <si>
+    <t>世界快樂報告</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
@@ -1484,6 +1496,12 @@
     <t>大聯合政府</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%9C%81%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>荷兰省份</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%9C%81%E7%B4%9A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -2442,12 +2460,6 @@
   </si>
   <si>
     <t>荷兰行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%9C%81%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>荷兰省份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%B8%83%E6%8B%89%E7%8F%AD%E7%89%B9%E7%9C%81</t>
@@ -3714,7 +3726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I594"/>
+  <dimension ref="A1:I597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4232,7 +4244,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -4551,7 +4563,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -5943,7 +5955,7 @@
         <v>147</v>
       </c>
       <c r="G77" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -7306,7 +7318,7 @@
         <v>234</v>
       </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -7683,7 +7695,7 @@
         <v>260</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -7741,7 +7753,7 @@
         <v>264</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -7799,7 +7811,7 @@
         <v>268</v>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -7857,7 +7869,7 @@
         <v>272</v>
       </c>
       <c r="G143" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -7886,7 +7898,7 @@
         <v>274</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -7915,7 +7927,7 @@
         <v>276</v>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -7944,7 +7956,7 @@
         <v>278</v>
       </c>
       <c r="G146" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -7973,7 +7985,7 @@
         <v>280</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -8002,7 +8014,7 @@
         <v>282</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -8031,7 +8043,7 @@
         <v>284</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -8083,13 +8095,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -8112,10 +8124,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8141,13 +8153,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>290</v>
+        <v>7</v>
       </c>
       <c r="F153" t="s">
         <v>291</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -8176,7 +8188,7 @@
         <v>293</v>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -8199,13 +8211,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -8228,13 +8240,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -8257,13 +8269,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>296</v>
+        <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -8286,13 +8298,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -8315,13 +8327,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -8344,13 +8356,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="F160" t="s">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -8408,7 +8420,7 @@
         <v>305</v>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -8437,7 +8449,7 @@
         <v>307</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -8466,7 +8478,7 @@
         <v>309</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -8495,7 +8507,7 @@
         <v>311</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -8524,7 +8536,7 @@
         <v>313</v>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -8547,13 +8559,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>7</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -8576,13 +8588,13 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -8605,10 +8617,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="F169" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8634,10 +8646,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="F170" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8663,13 +8675,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>316</v>
+        <v>124</v>
       </c>
       <c r="F171" t="s">
-        <v>317</v>
+        <v>125</v>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -8727,7 +8739,7 @@
         <v>321</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -8756,7 +8768,7 @@
         <v>323</v>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -8785,7 +8797,7 @@
         <v>325</v>
       </c>
       <c r="G175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -8814,7 +8826,7 @@
         <v>327</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -8843,7 +8855,7 @@
         <v>329</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -8872,7 +8884,7 @@
         <v>331</v>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -8901,7 +8913,7 @@
         <v>333</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -8930,7 +8942,7 @@
         <v>335</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8988,7 +9000,7 @@
         <v>339</v>
       </c>
       <c r="G182" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -9017,7 +9029,7 @@
         <v>341</v>
       </c>
       <c r="G183" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -9046,7 +9058,7 @@
         <v>343</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -9075,7 +9087,7 @@
         <v>345</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -9133,7 +9145,7 @@
         <v>349</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -9162,7 +9174,7 @@
         <v>351</v>
       </c>
       <c r="G188" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -9220,7 +9232,7 @@
         <v>355</v>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -9249,7 +9261,7 @@
         <v>357</v>
       </c>
       <c r="G191" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -9278,7 +9290,7 @@
         <v>359</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -9307,7 +9319,7 @@
         <v>361</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -9365,7 +9377,7 @@
         <v>365</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -9423,7 +9435,7 @@
         <v>369</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -9446,10 +9458,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="F198" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9475,10 +9487,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F199" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9504,13 +9516,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>372</v>
+        <v>128</v>
       </c>
       <c r="F200" t="s">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="G200" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9539,7 +9551,7 @@
         <v>375</v>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -9568,7 +9580,7 @@
         <v>377</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -9597,7 +9609,7 @@
         <v>379</v>
       </c>
       <c r="G203" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -9626,7 +9638,7 @@
         <v>381</v>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -9655,7 +9667,7 @@
         <v>383</v>
       </c>
       <c r="G205" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -9713,7 +9725,7 @@
         <v>387</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -9742,7 +9754,7 @@
         <v>389</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9800,7 +9812,7 @@
         <v>393</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9945,7 +9957,7 @@
         <v>403</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -10003,7 +10015,7 @@
         <v>407</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -10032,7 +10044,7 @@
         <v>409</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -10090,7 +10102,7 @@
         <v>413</v>
       </c>
       <c r="G220" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -10148,7 +10160,7 @@
         <v>417</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -10177,7 +10189,7 @@
         <v>419</v>
       </c>
       <c r="G223" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -10206,7 +10218,7 @@
         <v>421</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -10235,7 +10247,7 @@
         <v>423</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -10264,7 +10276,7 @@
         <v>425</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -10293,7 +10305,7 @@
         <v>427</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -10322,7 +10334,7 @@
         <v>429</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -10351,7 +10363,7 @@
         <v>431</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -10438,7 +10450,7 @@
         <v>437</v>
       </c>
       <c r="G232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -10467,7 +10479,7 @@
         <v>439</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -10525,7 +10537,7 @@
         <v>443</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -10554,7 +10566,7 @@
         <v>445</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -10664,13 +10676,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>167</v>
+        <v>452</v>
       </c>
       <c r="F240" t="s">
-        <v>168</v>
+        <v>453</v>
       </c>
       <c r="G240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -10693,13 +10705,13 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F241" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G241" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -10722,13 +10734,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>454</v>
+        <v>167</v>
       </c>
       <c r="F242" t="s">
-        <v>455</v>
+        <v>168</v>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10757,7 +10769,7 @@
         <v>457</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -10786,7 +10798,7 @@
         <v>459</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -10809,13 +10821,13 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>9</v>
+        <v>460</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G245" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10838,10 +10850,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10867,13 +10879,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="F247" t="s">
         <v>464</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10902,7 +10914,7 @@
         <v>466</v>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10931,7 +10943,7 @@
         <v>468</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10960,7 +10972,7 @@
         <v>470</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10989,7 +11001,7 @@
         <v>472</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -11076,7 +11088,7 @@
         <v>478</v>
       </c>
       <c r="G254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -11134,7 +11146,7 @@
         <v>482</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -11192,7 +11204,7 @@
         <v>486</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -11250,7 +11262,7 @@
         <v>490</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -11279,7 +11291,7 @@
         <v>492</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -11308,7 +11320,7 @@
         <v>494</v>
       </c>
       <c r="G262" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -11337,7 +11349,7 @@
         <v>496</v>
       </c>
       <c r="G263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -11366,7 +11378,7 @@
         <v>498</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11395,7 +11407,7 @@
         <v>500</v>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -11424,7 +11436,7 @@
         <v>502</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -11453,7 +11465,7 @@
         <v>504</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -11482,7 +11494,7 @@
         <v>506</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -11540,7 +11552,7 @@
         <v>510</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -11569,7 +11581,7 @@
         <v>512</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11627,7 +11639,7 @@
         <v>516</v>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11656,7 +11668,7 @@
         <v>518</v>
       </c>
       <c r="G274" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11685,7 +11697,7 @@
         <v>520</v>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11714,7 +11726,7 @@
         <v>522</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11743,7 +11755,7 @@
         <v>524</v>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11772,7 +11784,7 @@
         <v>526</v>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -11830,7 +11842,7 @@
         <v>530</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11859,7 +11871,7 @@
         <v>532</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11888,7 +11900,7 @@
         <v>534</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -12004,7 +12016,7 @@
         <v>542</v>
       </c>
       <c r="G286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -12033,7 +12045,7 @@
         <v>544</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -12091,7 +12103,7 @@
         <v>548</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -12149,7 +12161,7 @@
         <v>552</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -12207,7 +12219,7 @@
         <v>556</v>
       </c>
       <c r="G293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -12236,7 +12248,7 @@
         <v>558</v>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -12294,7 +12306,7 @@
         <v>562</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -12323,7 +12335,7 @@
         <v>564</v>
       </c>
       <c r="G297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12410,7 +12422,7 @@
         <v>570</v>
       </c>
       <c r="G300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -12497,7 +12509,7 @@
         <v>576</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -12555,7 +12567,7 @@
         <v>580</v>
       </c>
       <c r="G305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12642,7 +12654,7 @@
         <v>586</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -12700,7 +12712,7 @@
         <v>590</v>
       </c>
       <c r="G310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -12758,7 +12770,7 @@
         <v>594</v>
       </c>
       <c r="G312" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12787,7 +12799,7 @@
         <v>596</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12816,7 +12828,7 @@
         <v>598</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12845,7 +12857,7 @@
         <v>600</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12874,7 +12886,7 @@
         <v>602</v>
       </c>
       <c r="G316" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12903,7 +12915,7 @@
         <v>604</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12961,7 +12973,7 @@
         <v>608</v>
       </c>
       <c r="G319" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12990,7 +13002,7 @@
         <v>610</v>
       </c>
       <c r="G320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -13048,7 +13060,7 @@
         <v>614</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -13077,7 +13089,7 @@
         <v>616</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -13193,7 +13205,7 @@
         <v>624</v>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13222,7 +13234,7 @@
         <v>626</v>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -13309,7 +13321,7 @@
         <v>632</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -13396,7 +13408,7 @@
         <v>638</v>
       </c>
       <c r="G334" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13425,7 +13437,7 @@
         <v>640</v>
       </c>
       <c r="G335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -13454,7 +13466,7 @@
         <v>642</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -13483,7 +13495,7 @@
         <v>644</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -13512,7 +13524,7 @@
         <v>646</v>
       </c>
       <c r="G338" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -13599,7 +13611,7 @@
         <v>652</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13686,7 +13698,7 @@
         <v>658</v>
       </c>
       <c r="G344" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -13744,7 +13756,7 @@
         <v>662</v>
       </c>
       <c r="G346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13773,7 +13785,7 @@
         <v>664</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13802,7 +13814,7 @@
         <v>666</v>
       </c>
       <c r="G348" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13825,10 +13837,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>288</v>
+        <v>667</v>
       </c>
       <c r="F349" t="s">
-        <v>289</v>
+        <v>668</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13854,13 +13866,13 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>290</v>
+        <v>669</v>
       </c>
       <c r="F350" t="s">
-        <v>291</v>
+        <v>670</v>
       </c>
       <c r="G350" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13883,13 +13895,13 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F351" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="G351" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -13912,13 +13924,13 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>529</v>
+        <v>292</v>
       </c>
       <c r="F352" t="s">
-        <v>530</v>
+        <v>293</v>
       </c>
       <c r="G352" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -13941,13 +13953,13 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>294</v>
       </c>
       <c r="F353" t="s">
-        <v>670</v>
+        <v>295</v>
       </c>
       <c r="G353" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13970,13 +13982,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13999,13 +14011,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>673</v>
+        <v>535</v>
       </c>
       <c r="F355" t="s">
-        <v>674</v>
+        <v>536</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -14034,7 +14046,7 @@
         <v>676</v>
       </c>
       <c r="G356" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -14121,7 +14133,7 @@
         <v>682</v>
       </c>
       <c r="G359" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -14208,7 +14220,7 @@
         <v>688</v>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -14411,7 +14423,7 @@
         <v>702</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -14498,7 +14510,7 @@
         <v>708</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -14730,7 +14742,7 @@
         <v>724</v>
       </c>
       <c r="G380" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14753,10 +14765,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>296</v>
+        <v>725</v>
       </c>
       <c r="F381" t="s">
-        <v>297</v>
+        <v>726</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14782,10 +14794,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F382" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14811,13 +14823,13 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F383" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -14840,10 +14852,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>729</v>
+        <v>300</v>
       </c>
       <c r="F384" t="s">
-        <v>730</v>
+        <v>301</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15020,7 +15032,7 @@
         <v>742</v>
       </c>
       <c r="G390" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -15049,7 +15061,7 @@
         <v>744</v>
       </c>
       <c r="G391" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -15078,7 +15090,7 @@
         <v>746</v>
       </c>
       <c r="G392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -15107,7 +15119,7 @@
         <v>748</v>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -15136,7 +15148,7 @@
         <v>750</v>
       </c>
       <c r="G394" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -15165,7 +15177,7 @@
         <v>752</v>
       </c>
       <c r="G395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -15658,7 +15670,7 @@
         <v>786</v>
       </c>
       <c r="G412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
@@ -15739,13 +15751,13 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
       <c r="F415" t="s">
-        <v>287</v>
+        <v>792</v>
       </c>
       <c r="G415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -15768,13 +15780,13 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F416" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G416" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -15797,10 +15809,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F417" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15826,10 +15838,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>795</v>
+        <v>7</v>
       </c>
       <c r="F418" t="s">
-        <v>796</v>
+        <v>291</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15861,7 +15873,7 @@
         <v>798</v>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15948,7 +15960,7 @@
         <v>804</v>
       </c>
       <c r="G422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -15977,7 +15989,7 @@
         <v>806</v>
       </c>
       <c r="G423" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -16006,7 +16018,7 @@
         <v>808</v>
       </c>
       <c r="G424" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -16035,7 +16047,7 @@
         <v>810</v>
       </c>
       <c r="G425" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -16064,7 +16076,7 @@
         <v>812</v>
       </c>
       <c r="G426" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -16093,7 +16105,7 @@
         <v>814</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -16116,13 +16128,13 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>815</v>
+        <v>493</v>
       </c>
       <c r="F428" t="s">
-        <v>816</v>
+        <v>494</v>
       </c>
       <c r="G428" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -16145,13 +16157,13 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>124</v>
+        <v>815</v>
       </c>
       <c r="F429" t="s">
-        <v>125</v>
+        <v>816</v>
       </c>
       <c r="G429" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -16180,7 +16192,7 @@
         <v>818</v>
       </c>
       <c r="G430" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16209,7 +16221,7 @@
         <v>820</v>
       </c>
       <c r="G431" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -16232,13 +16244,13 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>821</v>
+        <v>124</v>
       </c>
       <c r="F432" t="s">
-        <v>822</v>
+        <v>125</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -16261,13 +16273,13 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F433" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G433" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -16290,10 +16302,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F434" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16319,10 +16331,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F435" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16348,10 +16360,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F436" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16377,10 +16389,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F437" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16406,10 +16418,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F438" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16435,10 +16447,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>9</v>
+        <v>833</v>
       </c>
       <c r="F439" t="s">
-        <v>460</v>
+        <v>834</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16464,13 +16476,13 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>330</v>
+        <v>835</v>
       </c>
       <c r="F440" t="s">
-        <v>331</v>
+        <v>836</v>
       </c>
       <c r="G440" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -16493,10 +16505,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F441" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16522,10 +16534,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>837</v>
+        <v>9</v>
       </c>
       <c r="F442" t="s">
-        <v>838</v>
+        <v>464</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16551,13 +16563,13 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>839</v>
+        <v>334</v>
       </c>
       <c r="F443" t="s">
-        <v>840</v>
+        <v>335</v>
       </c>
       <c r="G443" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -16580,10 +16592,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F444" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16609,10 +16621,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F445" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16638,10 +16650,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>396</v>
+        <v>843</v>
       </c>
       <c r="F446" t="s">
-        <v>397</v>
+        <v>844</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16667,10 +16679,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>398</v>
+        <v>845</v>
       </c>
       <c r="F447" t="s">
-        <v>399</v>
+        <v>846</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16696,10 +16708,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F448" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16725,10 +16737,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>847</v>
+        <v>400</v>
       </c>
       <c r="F449" t="s">
-        <v>848</v>
+        <v>401</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16754,10 +16766,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F450" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16841,10 +16853,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>853</v>
+        <v>404</v>
       </c>
       <c r="F453" t="s">
-        <v>854</v>
+        <v>405</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16870,13 +16882,13 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>434</v>
+        <v>853</v>
       </c>
       <c r="F454" t="s">
-        <v>435</v>
+        <v>854</v>
       </c>
       <c r="G454" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -16905,7 +16917,7 @@
         <v>856</v>
       </c>
       <c r="G455" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -16957,13 +16969,13 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>859</v>
+        <v>438</v>
       </c>
       <c r="F457" t="s">
-        <v>860</v>
+        <v>439</v>
       </c>
       <c r="G457" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -16986,13 +16998,13 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F458" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G458" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -17015,10 +17027,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F459" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17044,10 +17056,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F460" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17073,10 +17085,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F461" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17102,13 +17114,13 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>456</v>
+        <v>867</v>
       </c>
       <c r="F462" t="s">
-        <v>457</v>
+        <v>868</v>
       </c>
       <c r="G462" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -17160,13 +17172,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>489</v>
+        <v>871</v>
       </c>
       <c r="F464" t="s">
-        <v>490</v>
+        <v>872</v>
       </c>
       <c r="G464" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17189,13 +17201,13 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>871</v>
+        <v>460</v>
       </c>
       <c r="F465" t="s">
-        <v>872</v>
+        <v>461</v>
       </c>
       <c r="G465" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H465" t="s">
         <v>4</v>
@@ -17247,13 +17259,13 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>875</v>
+        <v>495</v>
       </c>
       <c r="F467" t="s">
-        <v>876</v>
+        <v>496</v>
       </c>
       <c r="G467" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -17276,10 +17288,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F468" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17305,10 +17317,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F469" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17334,10 +17346,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F470" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17363,10 +17375,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F471" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17392,10 +17404,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F472" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17421,10 +17433,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F473" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17450,10 +17462,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F474" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17479,13 +17491,13 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F475" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H475" t="s">
         <v>4</v>
@@ -17508,10 +17520,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>458</v>
+        <v>891</v>
       </c>
       <c r="F476" t="s">
-        <v>459</v>
+        <v>892</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17566,13 +17578,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>589</v>
+        <v>895</v>
       </c>
       <c r="F478" t="s">
-        <v>590</v>
+        <v>896</v>
       </c>
       <c r="G478" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -17595,10 +17607,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>895</v>
+        <v>462</v>
       </c>
       <c r="F479" t="s">
-        <v>896</v>
+        <v>463</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17624,13 +17636,13 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>118</v>
+        <v>897</v>
       </c>
       <c r="F480" t="s">
-        <v>119</v>
+        <v>898</v>
       </c>
       <c r="G480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -17653,13 +17665,13 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>897</v>
+        <v>595</v>
       </c>
       <c r="F481" t="s">
-        <v>898</v>
+        <v>596</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -17711,13 +17723,13 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>901</v>
+        <v>118</v>
       </c>
       <c r="F483" t="s">
-        <v>902</v>
+        <v>119</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -17740,10 +17752,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F484" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17769,10 +17781,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F485" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17798,13 +17810,13 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F486" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G486" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -17827,10 +17839,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F487" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17856,13 +17868,13 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F488" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G488" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -17885,13 +17897,13 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F489" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G489" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -17914,13 +17926,13 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F490" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G490" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -17943,13 +17955,13 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>753</v>
+        <v>915</v>
       </c>
       <c r="F491" t="s">
-        <v>754</v>
+        <v>916</v>
       </c>
       <c r="G491" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -18007,7 +18019,7 @@
         <v>920</v>
       </c>
       <c r="G493" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -18030,13 +18042,13 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>689</v>
+        <v>759</v>
       </c>
       <c r="F494" t="s">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="G494" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -18117,13 +18129,13 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>925</v>
+        <v>695</v>
       </c>
       <c r="F497" t="s">
-        <v>926</v>
+        <v>696</v>
       </c>
       <c r="G497" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H497" t="s">
         <v>4</v>
@@ -18146,10 +18158,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F498" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18175,10 +18187,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F499" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18204,10 +18216,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F500" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18233,10 +18245,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F501" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18262,10 +18274,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F502" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18291,10 +18303,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F503" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18320,10 +18332,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>721</v>
+        <v>937</v>
       </c>
       <c r="F504" t="s">
-        <v>722</v>
+        <v>938</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18407,10 +18419,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>943</v>
+        <v>727</v>
       </c>
       <c r="F507" t="s">
-        <v>944</v>
+        <v>728</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18436,13 +18448,13 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F508" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G508" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18465,13 +18477,13 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F509" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18494,10 +18506,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F510" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18523,13 +18535,13 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F511" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G511" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -18552,13 +18564,13 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F512" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H512" t="s">
         <v>4</v>
@@ -18581,10 +18593,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F513" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18610,13 +18622,13 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F514" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G514" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -18639,10 +18651,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F515" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18668,13 +18680,13 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F516" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H516" t="s">
         <v>4</v>
@@ -18697,13 +18709,13 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F517" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G517" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H517" t="s">
         <v>4</v>
@@ -18726,13 +18738,13 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F518" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -18755,13 +18767,13 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F519" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -18784,13 +18796,13 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F520" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G520" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -18813,13 +18825,13 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F521" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -18842,13 +18854,13 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F522" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G522" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>
@@ -18871,10 +18883,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F523" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G523" t="n">
         <v>2</v>
@@ -18900,10 +18912,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F524" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G524" t="n">
         <v>3</v>
@@ -18929,13 +18941,13 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F525" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -18958,10 +18970,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F526" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G526" t="n">
         <v>2</v>
@@ -18987,13 +18999,13 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F527" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G527" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -19016,13 +19028,13 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F528" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G528" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H528" t="s">
         <v>4</v>
@@ -19045,13 +19057,13 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F529" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H529" t="s">
         <v>4</v>
@@ -19074,10 +19086,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F530" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -19103,10 +19115,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F531" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G531" t="n">
         <v>2</v>
@@ -19132,13 +19144,13 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F532" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G532" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H532" t="s">
         <v>4</v>
@@ -19161,10 +19173,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F533" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G533" t="n">
         <v>2</v>
@@ -19190,13 +19202,13 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F534" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -19219,13 +19231,13 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F535" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G535" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -19248,13 +19260,13 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F536" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H536" t="s">
         <v>4</v>
@@ -19277,10 +19289,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F537" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G537" t="n">
         <v>3</v>
@@ -19306,10 +19318,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F538" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G538" t="n">
         <v>2</v>
@@ -19335,13 +19347,13 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F539" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G539" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H539" t="s">
         <v>4</v>
@@ -19364,13 +19376,13 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F540" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G540" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
@@ -19393,13 +19405,13 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F541" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H541" t="s">
         <v>4</v>
@@ -19422,10 +19434,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F542" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19451,10 +19463,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F543" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19480,10 +19492,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F544" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19509,13 +19521,13 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F545" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G545" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -19538,13 +19550,13 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F546" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -19567,13 +19579,13 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F547" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H547" t="s">
         <v>4</v>
@@ -19596,13 +19608,13 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F548" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G548" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H548" t="s">
         <v>4</v>
@@ -19625,13 +19637,13 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F549" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H549" t="s">
         <v>4</v>
@@ -19654,13 +19666,13 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F550" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H550" t="s">
         <v>4</v>
@@ -19683,10 +19695,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F551" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19712,10 +19724,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F552" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G552" t="n">
         <v>2</v>
@@ -19741,10 +19753,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F553" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19770,10 +19782,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F554" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19799,13 +19811,13 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F555" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H555" t="s">
         <v>4</v>
@@ -19828,10 +19840,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F556" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19857,10 +19869,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F557" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19886,10 +19898,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F558" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19915,10 +19927,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F559" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19944,10 +19956,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F560" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19973,10 +19985,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F561" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20002,13 +20014,13 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F562" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H562" t="s">
         <v>4</v>
@@ -20031,10 +20043,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F563" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20060,10 +20072,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F564" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20089,13 +20101,13 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F565" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G565" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H565" t="s">
         <v>4</v>
@@ -20118,10 +20130,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F566" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20147,10 +20159,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F567" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20176,10 +20188,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F568" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20205,10 +20217,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F569" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20234,10 +20246,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F570" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20263,10 +20275,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F571" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20292,10 +20304,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F572" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20321,13 +20333,13 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>893</v>
+        <v>1073</v>
       </c>
       <c r="F573" t="s">
-        <v>894</v>
+        <v>1074</v>
       </c>
       <c r="G573" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="H573" t="s">
         <v>4</v>
@@ -20408,13 +20420,13 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1079</v>
+        <v>897</v>
       </c>
       <c r="F576" t="s">
-        <v>1080</v>
+        <v>898</v>
       </c>
       <c r="G576" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -20437,10 +20449,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F577" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20466,10 +20478,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F578" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20495,13 +20507,13 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F579" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G579" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H579" t="s">
         <v>4</v>
@@ -20524,10 +20536,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F580" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20553,10 +20565,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F581" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20582,13 +20594,13 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F582" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G582" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H582" t="s">
         <v>4</v>
@@ -20611,10 +20623,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F583" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20640,10 +20652,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F584" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20669,10 +20681,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F585" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20698,10 +20710,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F586" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20727,10 +20739,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F587" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20756,13 +20768,13 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F588" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G588" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H588" t="s">
         <v>4</v>
@@ -20785,10 +20797,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F589" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20814,10 +20826,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F590" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20843,13 +20855,13 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F591" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G591" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H591" t="s">
         <v>4</v>
@@ -20872,10 +20884,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F592" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -20901,10 +20913,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F593" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -20930,18 +20942,105 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1</v>
+      </c>
+      <c r="H594" t="s">
+        <v>4</v>
+      </c>
+      <c r="I594" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="s">
+        <v>0</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1</v>
+      </c>
+      <c r="D595" t="n">
+        <v>594</v>
+      </c>
+      <c r="E595" t="s">
         <v>1115</v>
       </c>
-      <c r="F594" t="s">
+      <c r="F595" t="s">
         <v>1116</v>
       </c>
-      <c r="G594" t="n">
-        <v>1</v>
-      </c>
-      <c r="H594" t="s">
-        <v>4</v>
-      </c>
-      <c r="I594" t="n">
+      <c r="G595" t="n">
+        <v>1</v>
+      </c>
+      <c r="H595" t="s">
+        <v>4</v>
+      </c>
+      <c r="I595" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="s">
+        <v>0</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1</v>
+      </c>
+      <c r="D596" t="n">
+        <v>595</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F596" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1</v>
+      </c>
+      <c r="H596" t="s">
+        <v>4</v>
+      </c>
+      <c r="I596" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1</v>
+      </c>
+      <c r="D597" t="n">
+        <v>596</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F597" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1</v>
+      </c>
+      <c r="H597" t="s">
+        <v>4</v>
+      </c>
+      <c r="I597" t="n">
         <v>3</v>
       </c>
     </row>
